--- a/Grafy.xlsx
+++ b/Grafy.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a096a757e0af4ff2/Škola/Maturitní práce/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a096a757e0af4ff2/Škola/Maturitni-prace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD14D319-CB43-41F4-B5B4-DC3DE258B946}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7629F817-72FC-4828-8E81-7EE88A960AB3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rychlost DSL" sheetId="1" r:id="rId1"/>
     <sheet name="Rychlost LTE" sheetId="2" r:id="rId2"/>
+    <sheet name="Cena technologií" sheetId="3" r:id="rId3"/>
+    <sheet name="Rychlosti UTP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>ADSL</t>
   </si>
@@ -58,10 +60,58 @@
     <t>3G</t>
   </si>
   <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>DSL</t>
+  </si>
+  <si>
+    <t>Optika</t>
+  </si>
+  <si>
     <t>LTE</t>
   </si>
   <si>
-    <t>5G</t>
+    <t>Wi-fi</t>
+  </si>
+  <si>
+    <t>Satelitní internet</t>
+  </si>
+  <si>
+    <t>Paušál</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Zřízení služby</t>
+  </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>Rychlost</t>
+  </si>
+  <si>
+    <t>CAT5</t>
+  </si>
+  <si>
+    <t>CAT5e</t>
+  </si>
+  <si>
+    <t>CAT6</t>
+  </si>
+  <si>
+    <t>CAT6a</t>
+  </si>
+  <si>
+    <t>CAT7</t>
+  </si>
+  <si>
+    <t>Mb/s</t>
   </si>
 </sst>
 </file>
@@ -953,7 +1003,7 @@
                   <c:v>3G</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>LTE</c:v>
+                  <c:v>4G</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5G</c:v>
@@ -1109,7 +1159,7 @@
                   <c:v>3G</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>LTE</c:v>
+                  <c:v>4G</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5G</c:v>
@@ -1349,6 +1399,1210 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Cena jednotlivých technologií v Kč</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cena technologií'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zřízení služby</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cena technologií'!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Optika</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DSL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LTE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wi-fi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Satelitní internet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cena technologií'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD6D-4D50-B330-36801DC07B1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cena technologií'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hardware</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cena technologií'!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Optika</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DSL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LTE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wi-fi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Satelitní internet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cena technologií'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD6D-4D50-B330-36801DC07B1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cena technologií'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paušál</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cena technologií'!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Optika</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DSL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LTE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wi-fi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Satelitní internet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cena technologií'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD6D-4D50-B330-36801DC07B1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="614784072"/>
+        <c:axId val="614784400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="614784072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614784400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="614784400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614784072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Rychlost připojení technogie UTP v Mb/s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rychlosti UTP'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rychlost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rychlosti UTP'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>CAT5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CAT5e</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CAT6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CAT6a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CAT7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rychlosti UTP'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F11E-4FB6-A83A-0E5DBA066B12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="576686368"/>
+        <c:axId val="576683744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="576686368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="576683744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="576683744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="576686368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1429,6 +2683,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
@@ -2421,20 +3755,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>236220</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2466,16 +4792,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2483,6 +4809,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC3D5E8-9FBB-45CF-A5CB-ADD2E8BC1642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C69196-6147-4939-AD89-B6B5CFFC8FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7833F002-8B14-4096-8D64-A007741F01D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,8 +5176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2849,7 +5257,7 @@
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2894,7 +5302,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>300</v>
@@ -2905,7 +5313,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>500</v>
@@ -2919,4 +5327,186 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C497666A-85A6-491D-8B0D-E05EFD012999}">
+  <dimension ref="B1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>800</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>800</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>500</v>
+      </c>
+      <c r="D6" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F730317D-EF02-4A64-8FBD-31CCA237857A}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>10000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Grafy.xlsx
+++ b/Grafy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a096a757e0af4ff2/Škola/Maturitni-prace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7629F817-72FC-4828-8E81-7EE88A960AB3}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B86B665-B483-48E0-A50E-A58AD3F90E7D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rychlost DSL" sheetId="1" r:id="rId1"/>
@@ -1626,7 +1626,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>800</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>800</c:v>
@@ -5176,7 +5176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -5334,7 +5334,7 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5361,7 +5361,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="D2" s="2">
         <v>3000</v>
@@ -5436,7 +5436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F730317D-EF02-4A64-8FBD-31CCA237857A}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>

--- a/Grafy.xlsx
+++ b/Grafy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a096a757e0af4ff2/Škola/Maturitni-prace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B86B665-B483-48E0-A50E-A58AD3F90E7D}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0195E333-356C-448F-9A8C-5ACBCD298118}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rychlost DSL" sheetId="1" r:id="rId1"/>
@@ -4751,16 +4751,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4792,16 +4792,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4833,16 +4833,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4874,16 +4874,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5176,8 +5176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5257,7 +5257,7 @@
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5324,7 +5324,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5334,7 +5334,7 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5428,7 +5428,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5436,8 +5437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F730317D-EF02-4A64-8FBD-31CCA237857A}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5507,6 +5508,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>